--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1643237.350222941</v>
+        <v>-1646106.77806626</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>164.3897394713428</v>
       </c>
       <c r="I2" t="n">
-        <v>104.5113366705979</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>235.5764371467027</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>213.2830518634115</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>311.5036113800891</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.50169760213065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>67.41850321461121</v>
+        <v>155.5509599380554</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>347.0732533001013</v>
       </c>
       <c r="G8" t="n">
-        <v>28.25580401299748</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1184,7 +1184,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>126.5826060252208</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.6313657514415</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>150.334156177348</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>206.1466683956862</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>162.4016674345625</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>148.0536352423264</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>50.0620915095756</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>5.94317878650419</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>18.50276072357057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>7.61374123523283</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>119.3168020713735</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898977</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445519</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969978</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583422</v>
+        <v>1117.513150920515</v>
       </c>
       <c r="C2" t="n">
-        <v>159.5099885583422</v>
+        <v>1117.513150920515</v>
       </c>
       <c r="D2" t="n">
-        <v>159.5099885583422</v>
+        <v>759.2474523137644</v>
       </c>
       <c r="E2" t="n">
-        <v>159.5099885583422</v>
+        <v>373.4591997155201</v>
       </c>
       <c r="F2" t="n">
-        <v>159.5099885583422</v>
+        <v>373.4591997155201</v>
       </c>
       <c r="G2" t="n">
-        <v>159.5099885583422</v>
+        <v>373.4591997155201</v>
       </c>
       <c r="H2" t="n">
-        <v>159.5099885583422</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,13 +4416,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4522,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>490.1729870885526</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1964.838184214438</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1260.23969508402</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1260.23969508402</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>849.2537902944125</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.086203674652</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y5" t="n">
-        <v>2351.43802427856</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8558756644252</v>
+        <v>541.5898833044448</v>
       </c>
       <c r="C7" t="n">
-        <v>370.8558756644252</v>
+        <v>541.5898833044448</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>541.5898833044448</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>370.8558756644252</v>
+        <v>541.5898833044448</v>
       </c>
       <c r="W7" t="n">
-        <v>370.8558756644252</v>
+        <v>541.5898833044448</v>
       </c>
       <c r="X7" t="n">
-        <v>370.8558756644252</v>
+        <v>541.5898833044448</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.8558756644252</v>
+        <v>541.5898833044448</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1367.913842923262</v>
+        <v>1582.713704655551</v>
       </c>
       <c r="C8" t="n">
-        <v>998.9513259828504</v>
+        <v>1213.751187715139</v>
       </c>
       <c r="D8" t="n">
-        <v>998.9513259828504</v>
+        <v>855.4854891083887</v>
       </c>
       <c r="E8" t="n">
-        <v>613.1630733846062</v>
+        <v>855.4854891083887</v>
       </c>
       <c r="F8" t="n">
-        <v>202.1771685949986</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4832,22 +4832,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.379601184342</v>
+        <v>1956.179462916631</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.379601184342</v>
+        <v>1956.179462916631</v>
       </c>
       <c r="X8" t="n">
-        <v>1367.913842923262</v>
+        <v>1582.713704655551</v>
       </c>
       <c r="Y8" t="n">
-        <v>1367.913842923262</v>
+        <v>1582.713704655551</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5836898399692</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9452297060877</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>516.7372500723662</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="C10" t="n">
-        <v>516.7372500723662</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="D10" t="n">
-        <v>366.6206106600305</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="E10" t="n">
-        <v>218.7075170776374</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>926.0164450724154</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>926.0164450724154</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>926.0164450724154</v>
       </c>
       <c r="U10" t="n">
-        <v>771.4217382782531</v>
+        <v>926.0164450724154</v>
       </c>
       <c r="V10" t="n">
-        <v>516.7372500723662</v>
+        <v>671.3319568665286</v>
       </c>
       <c r="W10" t="n">
-        <v>516.7372500723662</v>
+        <v>671.3319568665286</v>
       </c>
       <c r="X10" t="n">
-        <v>516.7372500723662</v>
+        <v>443.3424059685112</v>
       </c>
       <c r="Y10" t="n">
-        <v>516.7372500723662</v>
+        <v>222.5498268249811</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5282,16 +5282,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5501,37 +5501,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5601,7 +5601,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
         <v>1344.266747951538</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1625.780207734479</v>
+        <v>1538.836727347306</v>
       </c>
       <c r="W19" t="n">
-        <v>1336.363037697518</v>
+        <v>1249.419557310345</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799501</v>
+        <v>1021.430006412328</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559709</v>
+        <v>800.6374272687975</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5838,19 +5838,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876688</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>580.8993044876688</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>432.9862109052757</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>286.0962634073653</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>286.0962634073653</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>144.3844322495634</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,13 +6069,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770319</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>634.334587849125</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>484.2179484367892</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>336.3048548543961</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>336.3048548543961</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934014</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,7 +6467,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6476,10 +6476,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6786,16 +6786,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6853,7 +6853,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6877,7 +6877,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954146</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380725</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345469</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384012</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,46 +7336,46 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,10 +7594,10 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7786,19 +7786,19 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>176.8008973295431</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>87.65044576047671</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>159.5330332930143</v>
       </c>
       <c r="I2" t="n">
-        <v>47.41997957426331</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22765,10 +22765,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>73.2399464731795</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>53.95978732560567</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>135.8503182118961</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.8157004124962</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>45.99097492814181</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>104.0840080815016</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>31.20374480898993</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>246.1944645373238</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>210.970912116862</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.26785128072127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1296314.111224109</v>
+        <v>1296314.111224108</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1296314.111224109</v>
+        <v>1296314.111224108</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1296314.111224109</v>
+        <v>1296314.111224108</v>
       </c>
     </row>
     <row r="11">
@@ -26314,7 +26314,7 @@
         <v>99467.00901045142</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="D2" t="n">
         <v>123156.2654796425</v>
@@ -26341,7 +26341,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682786</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682766</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="H4" t="n">
+        <v>5677.536566682765</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="I4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="K4" t="n">
-        <v>13668.39582977623</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="L4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="M4" t="n">
         <v>13668.3958297762</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977624</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.3958297762</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-693142.0461485038</v>
+        <v>-693536.867089657</v>
       </c>
       <c r="C6" t="n">
         <v>-169625.2280468003</v>
       </c>
       <c r="D6" t="n">
-        <v>-325429.0341405953</v>
+        <v>-325429.0341405952</v>
       </c>
       <c r="E6" t="n">
-        <v>-756780.7678178954</v>
+        <v>-756815.5057433309</v>
       </c>
       <c r="F6" t="n">
-        <v>14271.92356291099</v>
+        <v>14237.18563747538</v>
       </c>
       <c r="G6" t="n">
-        <v>14271.92356291099</v>
+        <v>14237.18563747534</v>
       </c>
       <c r="H6" t="n">
-        <v>14271.92356291102</v>
+        <v>14237.18563747531</v>
       </c>
       <c r="I6" t="n">
-        <v>14271.92356291106</v>
+        <v>14237.18563747537</v>
       </c>
       <c r="J6" t="n">
-        <v>-162151.2956296818</v>
+        <v>-162186.0335551176</v>
       </c>
       <c r="K6" t="n">
-        <v>-13103.96419768098</v>
+        <v>-13103.96419768099</v>
       </c>
       <c r="L6" t="n">
-        <v>6323.753795950804</v>
+        <v>6323.753795950877</v>
       </c>
       <c r="M6" t="n">
         <v>-117884.7569121076</v>
       </c>
       <c r="N6" t="n">
-        <v>6323.753795950906</v>
+        <v>6323.753795950877</v>
       </c>
       <c r="O6" t="n">
         <v>6323.753795950892</v>
       </c>
       <c r="P6" t="n">
-        <v>-13103.96419768089</v>
+        <v>-13103.96419768092</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>326.1337242603183</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>16.56120617712526</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>102.2805586407059</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>371.7362410539229</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>184.7191401092168</v>
+        <v>96.58668338577257</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>59.80279244161017</v>
       </c>
       <c r="G8" t="n">
-        <v>384.6610999329393</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>2.590575642570514</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,7 +28065,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>6.629288906655518</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32321,10 +32321,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32558,10 +32558,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N24" t="n">
-        <v>705.9257335045849</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>235.5705495535871</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,22 +33260,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>245.091624262227</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066233</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35969,10 +35969,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>274.2960242312443</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N24" t="n">
-        <v>574.5840214212516</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>92.97430510914269</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
